--- a/FPH_Linear/305-FPH-Relatório-Reg-D-ITIQUIRA II .xlsx
+++ b/FPH_Linear/305-FPH-Relatório-Reg-D-ITIQUIRA II .xlsx
@@ -951,7 +951,7 @@
         <v>-0</v>
       </c>
       <c r="E2">
-        <v>-0.005178454356097394</v>
+        <v>-0.005110677222724122</v>
       </c>
       <c r="F2">
         <v>0.7015189667036452</v>
@@ -960,7 +960,7 @@
         <v>0.0796340078463144</v>
       </c>
       <c r="H2">
-        <v>0.3459474299779629</v>
+        <v>0.3458693223981227</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>-0</v>
       </c>
       <c r="E3">
-        <v>-0.006102443635365841</v>
+        <v>-0.006018166693434203</v>
       </c>
       <c r="F3">
         <v>0.4728316200847074</v>
@@ -997,7 +997,7 @@
         <v>-0</v>
       </c>
       <c r="E4">
-        <v>-0.009254698032448128</v>
+        <v>-0.009114130833425736</v>
       </c>
       <c r="F4">
         <v>0.2127706323254255</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01699181193519087</v>
+        <v>-0.01671308198790521</v>
       </c>
       <c r="F5">
         <v>0</v>
